--- a/data/data_age.xlsx
+++ b/data/data_age.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">German</t>
   </si>
   <si>
-    <t xml:space="preserve">(0,600]</t>
+    <t xml:space="preserve">[0,600]</t>
   </si>
   <si>
     <t xml:space="preserve">?</t>
@@ -7609,7 +7609,9 @@
       <c r="G224" t="s">
         <v>11</v>
       </c>
-      <c r="H224"/>
+      <c r="H224" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
